--- a/docs/odh/shr-core-LandmarkLocation-model.xlsx
+++ b/docs/odh/shr-core-LandmarkLocation-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
   <si>
     <t>Path</t>
   </si>
@@ -134,10 +134,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>The body location of the landmark.</t>
-  </si>
-  <si>
-    <t>shr-core-LandmarkLocation-model.locationCode</t>
+    <t>The body location of the landmark, specified by a location code and optional laterality and orientation.</t>
+  </si>
+  <si>
+    <t>shr-core-LandmarkLocation-model.code</t>
   </si>
   <si>
     <t>1</t>
@@ -147,13 +147,7 @@
 </t>
   </si>
   <si>
-    <t>Code for the body location, optionally pre-coordinating laterality or direction.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/BodyLocationVS</t>
+    <t>The main type identifier for a lab, procedure, condition, etc., usually drawn from a controlled vocabulary.</t>
   </si>
   <si>
     <t>shr-core-LandmarkLocation-model.laterality</t>
@@ -162,10 +156,20 @@
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.</t>
   </si>
   <si>
+    <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
+The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
+  </si>
+  <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/LateralityVS</t>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-LateralityVS</t>
   </si>
   <si>
     <t>shr-core-LandmarkLocation-model.orientation</t>
@@ -174,7 +178,17 @@
     <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/OrientationVS</t>
+    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
+The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-OrientationVS</t>
   </si>
 </sst>
 </file>
@@ -323,7 +337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -332,7 +346,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.3046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -356,13 +370,13 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.80859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="42.546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -629,11 +643,13 @@
         <v>36</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X3" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y3" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Z3" t="s" s="2">
         <v>36</v>
@@ -668,7 +684,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -694,10 +710,10 @@
         <v>42</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -724,11 +740,11 @@
         <v>36</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z4" t="s" s="2">
         <v>36</v>
@@ -746,7 +762,7 @@
         <v>36</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>37</v>
@@ -763,7 +779,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -789,7 +805,7 @@
         <v>42</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>51</v>
@@ -819,7 +835,7 @@
         <v>36</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" t="s" s="2">
@@ -841,7 +857,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
